--- a/repartition_taches.xlsx
+++ b/repartition_taches.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
   <si>
     <t xml:space="preserve">Module</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">Miaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok</t>
   </si>
   <si>
     <t xml:space="preserve">Objets</t>
@@ -275,8 +278,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -472,375 +487,390 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="81.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="81.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="D4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="0" t="n">
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="F12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="0" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="0" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E13" s="0" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>31</v>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="C20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>31</v>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="0" t="s">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="0" t="n">
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
